--- a/e2_grupo2_S5_formato_de_respuesta_Definition_Of_Done_Vistas_de_Diseño.xlsx
+++ b/e2_grupo2_S5_formato_de_respuesta_Definition_Of_Done_Vistas_de_Diseño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Libe\Desktop\CARRERA APC DUOC\BIMESTRE 7\ING SOFTWARE\SEMANA 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF4FC39-314D-4BEF-9046-ABEC7E2D8715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F6951A-1F3D-47DB-96C9-9EB244E1D402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2457,7 +2457,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="33" t="s">
@@ -2544,7 +2544,7 @@
       <c r="H3" s="35"/>
       <c r="I3" s="24">
         <f>SUM(D2:D5)/12</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>43</v>
@@ -2566,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="33" t="s">
@@ -2598,7 +2598,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="33" t="s">
@@ -2672,7 +2672,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="23">
         <f>AVERAGE(I3:I7)</f>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4005,7 +4005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -4026,7 +4026,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="49">
         <f>Checklist!I8</f>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
